--- a/gamedata/mt/item.xlsx
+++ b/gamedata/mt/item.xlsx
@@ -537,60 +537,98 @@
         <v>maxhp</v>
       </c>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="19" r="5">
       <c r="A5" s="2">
-        <v>20000</v>
+        <v>10010</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>铁剑</v>
+        <v>HP+5属性书</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>锈迹斑斑的</v>
+        <v>一本能让人感到平静的</v>
       </c>
       <c r="D5" s="2" t="str">
-        <v>equip</v>
+        <v>item</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>upatk</v>
+        <v>hp</v>
       </c>
       <c r="F5" s="2" t="str">
         <v>add</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="6">
+      <c r="A6" s="2">
+        <v>10030</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>DPS+5属性书</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <v>一本能让人感到力量的</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <v>item</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <v>dps</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <v>add</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>铁剑</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <v>锈迹斑斑的</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v>equip</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v>upatk</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <v>add</v>
+      </c>
+      <c r="G7" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
+    <row r="8">
+      <c r="A8" s="2">
         <v>20001</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <v>血色魔剑</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C8" s="2" t="str">
         <v>剑柄上有个诡异人脸的</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <v>equip</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E8" s="2" t="str">
         <v>maxhp|upatk</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F8" s="2" t="str">
         <v>rampage</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <v>50|80</v>
       </c>
-      <c r="H6" s="2" t="str">
-        <v>maxhp|dps</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9">
       <c r="G9" s="1"/>
@@ -1167,6 +1205,12 @@
     </row>
     <row r="200">
       <c r="G200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="G202" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
